--- a/src/main/java/com/midas/qa/testdata/TC_midas.xlsx
+++ b/src/main/java/com/midas/qa/testdata/TC_midas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suresh\eclipse-workspace\Midas\src\main\java\com\midas\qa\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726675F1-4416-4982-BC7A-BFC76D598EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48FED7E-F075-4AB0-8A97-6A45470D4111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{F02FB88E-B876-4CA4-B972-6A6868B887DF}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="330">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1240,6 +1240,60 @@
   </si>
   <si>
     <t>Noun Modifier</t>
+  </si>
+  <si>
+    <t>HOD Request accepting</t>
+  </si>
+  <si>
+    <t>Request Accepting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Should login as a HOD </t>
+  </si>
+  <si>
+    <t>affter accepting the pop up "accepted" should visible</t>
+  </si>
+  <si>
+    <t>affter accepting the pop up "rejected" should visible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login as a HOD 
+2. in the To do dashboard select the request and click approve </t>
+  </si>
+  <si>
+    <t>1. Login as a HOD 
+2. in the To do dashboard select the request and click Reject</t>
+  </si>
+  <si>
+    <t>HOD Request Rejecting</t>
+  </si>
+  <si>
+    <t>TC022</t>
+  </si>
+  <si>
+    <t>TC023</t>
+  </si>
+  <si>
+    <t>TC024</t>
+  </si>
+  <si>
+    <t>TC025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Request accepted confirmation </t>
+  </si>
+  <si>
+    <t>Approved Request list</t>
+  </si>
+  <si>
+    <t>User Should login as a Requestor</t>
+  </si>
+  <si>
+    <t>1. Login as Requestor 
+2. Click the approved option in approver dashboard</t>
+  </si>
+  <si>
+    <t>the number showed in the Approved option and list viewed should be same</t>
   </si>
 </sst>
 </file>
@@ -3208,11 +3262,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EBA589A-2382-4365-8993-B914C3833BAC}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4181,9 +4235,89 @@
       <c r="G46" s="22"/>
       <c r="H46" s="22"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" ht="45">
       <c r="A47" t="s">
         <v>138</v>
+      </c>
+      <c r="B47" t="s">
+        <v>313</v>
+      </c>
+      <c r="C47" t="s">
+        <v>314</v>
+      </c>
+      <c r="D47" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="45">
+      <c r="A48" t="s">
+        <v>143</v>
+      </c>
+      <c r="B48" t="s">
+        <v>320</v>
+      </c>
+      <c r="C48" t="s">
+        <v>314</v>
+      </c>
+      <c r="D48" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="45">
+      <c r="A49" t="s">
+        <v>321</v>
+      </c>
+      <c r="B49" t="s">
+        <v>325</v>
+      </c>
+      <c r="C49" t="s">
+        <v>326</v>
+      </c>
+      <c r="D49" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="J49" s="6"/>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" t="s">
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -4206,6 +4340,7 @@
     <mergeCell ref="H40:H41"/>
     <mergeCell ref="H38:H39"/>
     <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H27:H29"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="C42:C43"/>
@@ -4263,7 +4398,6 @@
     <mergeCell ref="D30:D31"/>
     <mergeCell ref="E30:E31"/>
     <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H27:H29"/>
     <mergeCell ref="I27:I29"/>
     <mergeCell ref="J27:J29"/>
     <mergeCell ref="K27:K29"/>
@@ -4318,11 +4452,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00D198E-A41E-4826-AD95-BB20BF9B56D0}">
   <dimension ref="A7:K42"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="37.5703125" customWidth="1"/>
+    <col min="6" max="6" width="56.85546875" customWidth="1"/>
+    <col min="7" max="7" width="31" customWidth="1"/>
+    <col min="8" max="8" width="40" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="7" spans="1:11" ht="17.25" customHeight="1">
       <c r="A7" s="25" t="s">
